--- a/DATA/People_list.xlsx
+++ b/DATA/People_list.xlsx
@@ -3775,8 +3775,8 @@
   </sheetPr>
   <dimension ref="A1:E569"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A501" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C525" activeCellId="0" sqref="C525"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/DATA/People_list.xlsx
+++ b/DATA/People_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Coren\Documents\Python Projects\Face_Quizz\DATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6923EE30-131B-4D1B-AB9F-3E116B302B92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59DBF2D8-6734-45EF-9EB2-5DE851A40F1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2277" uniqueCount="1153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2277" uniqueCount="1152">
   <si>
     <t>Name</t>
   </si>
@@ -2644,9 +2644,6 @@
   </si>
   <si>
     <t>Artist known with his wife Jeanne-Claude for their large-scale, site-specific environmental installations and wrapped buildings.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Male </t>
   </si>
   <si>
     <t>Cindy Sherman</t>
@@ -3993,7 +3990,7 @@
   <dimension ref="A1:E569"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11292,7 +11289,7 @@
         <v>871</v>
       </c>
       <c r="D429" s="1" t="s">
-        <v>872</v>
+        <v>7</v>
       </c>
       <c r="E429" s="1" t="s">
         <v>79</v>
@@ -11300,13 +11297,13 @@
     </row>
     <row r="430" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A430" s="4" t="s">
+        <v>872</v>
+      </c>
+      <c r="B430" s="1">
+        <v>3</v>
+      </c>
+      <c r="C430" s="1" t="s">
         <v>873</v>
-      </c>
-      <c r="B430" s="1">
-        <v>3</v>
-      </c>
-      <c r="C430" s="1" t="s">
-        <v>874</v>
       </c>
       <c r="D430" s="1" t="s">
         <v>11</v>
@@ -11317,13 +11314,13 @@
     </row>
     <row r="431" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A431" s="4" t="s">
+        <v>874</v>
+      </c>
+      <c r="B431" s="1">
+        <v>3</v>
+      </c>
+      <c r="C431" s="1" t="s">
         <v>875</v>
-      </c>
-      <c r="B431" s="1">
-        <v>3</v>
-      </c>
-      <c r="C431" s="1" t="s">
-        <v>876</v>
       </c>
       <c r="D431" s="1" t="s">
         <v>7</v>
@@ -11334,13 +11331,13 @@
     </row>
     <row r="432" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A432" s="4" t="s">
+        <v>876</v>
+      </c>
+      <c r="B432" s="1">
+        <v>3</v>
+      </c>
+      <c r="C432" s="1" t="s">
         <v>877</v>
-      </c>
-      <c r="B432" s="1">
-        <v>3</v>
-      </c>
-      <c r="C432" s="1" t="s">
-        <v>878</v>
       </c>
       <c r="D432" s="1" t="s">
         <v>7</v>
@@ -11351,13 +11348,13 @@
     </row>
     <row r="433" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A433" s="4" t="s">
+        <v>878</v>
+      </c>
+      <c r="B433" s="1">
+        <v>3</v>
+      </c>
+      <c r="C433" s="1" t="s">
         <v>879</v>
-      </c>
-      <c r="B433" s="1">
-        <v>3</v>
-      </c>
-      <c r="C433" s="1" t="s">
-        <v>880</v>
       </c>
       <c r="D433" s="1" t="s">
         <v>7</v>
@@ -11368,13 +11365,13 @@
     </row>
     <row r="434" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A434" s="4" t="s">
+        <v>880</v>
+      </c>
+      <c r="B434" s="1">
+        <v>3</v>
+      </c>
+      <c r="C434" s="1" t="s">
         <v>881</v>
-      </c>
-      <c r="B434" s="1">
-        <v>3</v>
-      </c>
-      <c r="C434" s="1" t="s">
-        <v>882</v>
       </c>
       <c r="D434" s="1" t="s">
         <v>7</v>
@@ -11385,13 +11382,13 @@
     </row>
     <row r="435" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A435" s="4" t="s">
+        <v>882</v>
+      </c>
+      <c r="B435" s="1">
+        <v>3</v>
+      </c>
+      <c r="C435" s="1" t="s">
         <v>883</v>
-      </c>
-      <c r="B435" s="1">
-        <v>3</v>
-      </c>
-      <c r="C435" s="1" t="s">
-        <v>884</v>
       </c>
       <c r="D435" s="1" t="s">
         <v>7</v>
@@ -11402,13 +11399,13 @@
     </row>
     <row r="436" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A436" s="4" t="s">
+        <v>884</v>
+      </c>
+      <c r="B436" s="1">
+        <v>3</v>
+      </c>
+      <c r="C436" s="1" t="s">
         <v>885</v>
-      </c>
-      <c r="B436" s="1">
-        <v>3</v>
-      </c>
-      <c r="C436" s="1" t="s">
-        <v>886</v>
       </c>
       <c r="D436" s="1" t="s">
         <v>7</v>
@@ -11419,13 +11416,13 @@
     </row>
     <row r="437" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A437" s="4" t="s">
+        <v>886</v>
+      </c>
+      <c r="B437" s="1">
+        <v>3</v>
+      </c>
+      <c r="C437" s="1" t="s">
         <v>887</v>
-      </c>
-      <c r="B437" s="1">
-        <v>3</v>
-      </c>
-      <c r="C437" s="1" t="s">
-        <v>888</v>
       </c>
       <c r="D437" s="1" t="s">
         <v>7</v>
@@ -11436,13 +11433,13 @@
     </row>
     <row r="438" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A438" s="4" t="s">
+        <v>888</v>
+      </c>
+      <c r="B438" s="1">
+        <v>3</v>
+      </c>
+      <c r="C438" s="1" t="s">
         <v>889</v>
-      </c>
-      <c r="B438" s="1">
-        <v>3</v>
-      </c>
-      <c r="C438" s="1" t="s">
-        <v>890</v>
       </c>
       <c r="D438" s="1" t="s">
         <v>7</v>
@@ -11453,13 +11450,13 @@
     </row>
     <row r="439" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A439" s="4" t="s">
+        <v>890</v>
+      </c>
+      <c r="B439" s="1">
+        <v>3</v>
+      </c>
+      <c r="C439" s="1" t="s">
         <v>891</v>
-      </c>
-      <c r="B439" s="1">
-        <v>3</v>
-      </c>
-      <c r="C439" s="1" t="s">
-        <v>892</v>
       </c>
       <c r="D439" s="1" t="s">
         <v>7</v>
@@ -11470,13 +11467,13 @@
     </row>
     <row r="440" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A440" s="4" t="s">
+        <v>892</v>
+      </c>
+      <c r="B440" s="1">
+        <v>3</v>
+      </c>
+      <c r="C440" s="1" t="s">
         <v>893</v>
-      </c>
-      <c r="B440" s="1">
-        <v>3</v>
-      </c>
-      <c r="C440" s="1" t="s">
-        <v>894</v>
       </c>
       <c r="D440" s="1" t="s">
         <v>11</v>
@@ -11487,13 +11484,13 @@
     </row>
     <row r="441" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A441" s="4" t="s">
+        <v>894</v>
+      </c>
+      <c r="B441" s="1">
+        <v>3</v>
+      </c>
+      <c r="C441" s="1" t="s">
         <v>895</v>
-      </c>
-      <c r="B441" s="1">
-        <v>3</v>
-      </c>
-      <c r="C441" s="1" t="s">
-        <v>896</v>
       </c>
       <c r="D441" s="1" t="s">
         <v>11</v>
@@ -11504,13 +11501,13 @@
     </row>
     <row r="442" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A442" s="4" t="s">
+        <v>896</v>
+      </c>
+      <c r="B442" s="1">
+        <v>3</v>
+      </c>
+      <c r="C442" s="1" t="s">
         <v>897</v>
-      </c>
-      <c r="B442" s="1">
-        <v>3</v>
-      </c>
-      <c r="C442" s="1" t="s">
-        <v>898</v>
       </c>
       <c r="D442" s="1" t="s">
         <v>7</v>
@@ -11521,13 +11518,13 @@
     </row>
     <row r="443" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A443" s="4" t="s">
+        <v>898</v>
+      </c>
+      <c r="B443" s="1">
+        <v>3</v>
+      </c>
+      <c r="C443" s="1" t="s">
         <v>899</v>
-      </c>
-      <c r="B443" s="1">
-        <v>3</v>
-      </c>
-      <c r="C443" s="1" t="s">
-        <v>900</v>
       </c>
       <c r="D443" s="1" t="s">
         <v>7</v>
@@ -11538,13 +11535,13 @@
     </row>
     <row r="444" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A444" s="4" t="s">
+        <v>900</v>
+      </c>
+      <c r="B444" s="1">
+        <v>3</v>
+      </c>
+      <c r="C444" s="1" t="s">
         <v>901</v>
-      </c>
-      <c r="B444" s="1">
-        <v>3</v>
-      </c>
-      <c r="C444" s="1" t="s">
-        <v>902</v>
       </c>
       <c r="D444" s="1" t="s">
         <v>7</v>
@@ -11555,13 +11552,13 @@
     </row>
     <row r="445" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A445" s="4" t="s">
+        <v>902</v>
+      </c>
+      <c r="B445" s="1">
+        <v>3</v>
+      </c>
+      <c r="C445" s="1" t="s">
         <v>903</v>
-      </c>
-      <c r="B445" s="1">
-        <v>3</v>
-      </c>
-      <c r="C445" s="1" t="s">
-        <v>904</v>
       </c>
       <c r="D445" s="1" t="s">
         <v>7</v>
@@ -11572,13 +11569,13 @@
     </row>
     <row r="446" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A446" s="4" t="s">
+        <v>904</v>
+      </c>
+      <c r="B446" s="1">
+        <v>3</v>
+      </c>
+      <c r="C446" s="1" t="s">
         <v>905</v>
-      </c>
-      <c r="B446" s="1">
-        <v>3</v>
-      </c>
-      <c r="C446" s="1" t="s">
-        <v>906</v>
       </c>
       <c r="D446" s="1" t="s">
         <v>7</v>
@@ -11589,13 +11586,13 @@
     </row>
     <row r="447" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A447" s="4" t="s">
+        <v>906</v>
+      </c>
+      <c r="B447" s="1">
+        <v>3</v>
+      </c>
+      <c r="C447" s="1" t="s">
         <v>907</v>
-      </c>
-      <c r="B447" s="1">
-        <v>3</v>
-      </c>
-      <c r="C447" s="1" t="s">
-        <v>908</v>
       </c>
       <c r="D447" s="1" t="s">
         <v>7</v>
@@ -11606,13 +11603,13 @@
     </row>
     <row r="448" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A448" s="5" t="s">
+        <v>908</v>
+      </c>
+      <c r="B448" s="1">
+        <v>3</v>
+      </c>
+      <c r="C448" s="1" t="s">
         <v>909</v>
-      </c>
-      <c r="B448" s="1">
-        <v>3</v>
-      </c>
-      <c r="C448" s="1" t="s">
-        <v>910</v>
       </c>
       <c r="D448" s="1" t="s">
         <v>11</v>
@@ -11623,13 +11620,13 @@
     </row>
     <row r="449" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A449" s="5" t="s">
+        <v>910</v>
+      </c>
+      <c r="B449" s="1">
+        <v>3</v>
+      </c>
+      <c r="C449" s="1" t="s">
         <v>911</v>
-      </c>
-      <c r="B449" s="1">
-        <v>3</v>
-      </c>
-      <c r="C449" s="1" t="s">
-        <v>912</v>
       </c>
       <c r="D449" s="1" t="s">
         <v>11</v>
@@ -11640,13 +11637,13 @@
     </row>
     <row r="450" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A450" s="5" t="s">
+        <v>912</v>
+      </c>
+      <c r="B450" s="1">
+        <v>3</v>
+      </c>
+      <c r="C450" s="1" t="s">
         <v>913</v>
-      </c>
-      <c r="B450" s="1">
-        <v>3</v>
-      </c>
-      <c r="C450" s="1" t="s">
-        <v>914</v>
       </c>
       <c r="D450" s="1" t="s">
         <v>7</v>
@@ -11657,13 +11654,13 @@
     </row>
     <row r="451" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A451" s="5" t="s">
+        <v>914</v>
+      </c>
+      <c r="B451" s="1">
+        <v>3</v>
+      </c>
+      <c r="C451" s="1" t="s">
         <v>915</v>
-      </c>
-      <c r="B451" s="1">
-        <v>3</v>
-      </c>
-      <c r="C451" s="1" t="s">
-        <v>916</v>
       </c>
       <c r="D451" s="1" t="s">
         <v>7</v>
@@ -11674,13 +11671,13 @@
     </row>
     <row r="452" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A452" s="5" t="s">
+        <v>916</v>
+      </c>
+      <c r="B452" s="1">
+        <v>3</v>
+      </c>
+      <c r="C452" s="1" t="s">
         <v>917</v>
-      </c>
-      <c r="B452" s="1">
-        <v>3</v>
-      </c>
-      <c r="C452" s="1" t="s">
-        <v>918</v>
       </c>
       <c r="D452" s="1" t="s">
         <v>7</v>
@@ -11691,13 +11688,13 @@
     </row>
     <row r="453" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A453" s="5" t="s">
+        <v>918</v>
+      </c>
+      <c r="B453" s="1">
+        <v>3</v>
+      </c>
+      <c r="C453" s="1" t="s">
         <v>919</v>
-      </c>
-      <c r="B453" s="1">
-        <v>3</v>
-      </c>
-      <c r="C453" s="1" t="s">
-        <v>920</v>
       </c>
       <c r="D453" s="1" t="s">
         <v>7</v>
@@ -11708,13 +11705,13 @@
     </row>
     <row r="454" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A454" s="5" t="s">
+        <v>920</v>
+      </c>
+      <c r="B454" s="1">
+        <v>3</v>
+      </c>
+      <c r="C454" s="1" t="s">
         <v>921</v>
-      </c>
-      <c r="B454" s="1">
-        <v>3</v>
-      </c>
-      <c r="C454" s="1" t="s">
-        <v>922</v>
       </c>
       <c r="D454" s="1" t="s">
         <v>7</v>
@@ -11725,13 +11722,13 @@
     </row>
     <row r="455" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A455" s="5" t="s">
+        <v>922</v>
+      </c>
+      <c r="B455" s="1">
+        <v>3</v>
+      </c>
+      <c r="C455" s="1" t="s">
         <v>923</v>
-      </c>
-      <c r="B455" s="1">
-        <v>3</v>
-      </c>
-      <c r="C455" s="1" t="s">
-        <v>924</v>
       </c>
       <c r="D455" s="1" t="s">
         <v>7</v>
@@ -11742,13 +11739,13 @@
     </row>
     <row r="456" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A456" s="5" t="s">
+        <v>924</v>
+      </c>
+      <c r="B456" s="1">
+        <v>3</v>
+      </c>
+      <c r="C456" s="1" t="s">
         <v>925</v>
-      </c>
-      <c r="B456" s="1">
-        <v>3</v>
-      </c>
-      <c r="C456" s="1" t="s">
-        <v>926</v>
       </c>
       <c r="D456" s="1" t="s">
         <v>7</v>
@@ -11759,13 +11756,13 @@
     </row>
     <row r="457" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A457" s="5" t="s">
+        <v>926</v>
+      </c>
+      <c r="B457" s="1">
+        <v>3</v>
+      </c>
+      <c r="C457" s="1" t="s">
         <v>927</v>
-      </c>
-      <c r="B457" s="1">
-        <v>3</v>
-      </c>
-      <c r="C457" s="1" t="s">
-        <v>928</v>
       </c>
       <c r="D457" s="1" t="s">
         <v>11</v>
@@ -11776,13 +11773,13 @@
     </row>
     <row r="458" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A458" s="5" t="s">
+        <v>928</v>
+      </c>
+      <c r="B458" s="1">
+        <v>3</v>
+      </c>
+      <c r="C458" s="1" t="s">
         <v>929</v>
-      </c>
-      <c r="B458" s="1">
-        <v>3</v>
-      </c>
-      <c r="C458" s="1" t="s">
-        <v>930</v>
       </c>
       <c r="D458" s="1" t="s">
         <v>7</v>
@@ -11793,13 +11790,13 @@
     </row>
     <row r="459" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A459" s="5" t="s">
+        <v>930</v>
+      </c>
+      <c r="B459" s="1">
+        <v>3</v>
+      </c>
+      <c r="C459" s="1" t="s">
         <v>931</v>
-      </c>
-      <c r="B459" s="1">
-        <v>3</v>
-      </c>
-      <c r="C459" s="1" t="s">
-        <v>932</v>
       </c>
       <c r="D459" s="1" t="s">
         <v>7</v>
@@ -11810,13 +11807,13 @@
     </row>
     <row r="460" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A460" s="5" t="s">
+        <v>932</v>
+      </c>
+      <c r="B460" s="1">
+        <v>3</v>
+      </c>
+      <c r="C460" s="1" t="s">
         <v>933</v>
-      </c>
-      <c r="B460" s="1">
-        <v>3</v>
-      </c>
-      <c r="C460" s="1" t="s">
-        <v>934</v>
       </c>
       <c r="D460" s="1" t="s">
         <v>7</v>
@@ -11827,13 +11824,13 @@
     </row>
     <row r="461" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A461" s="5" t="s">
+        <v>934</v>
+      </c>
+      <c r="B461" s="1">
+        <v>3</v>
+      </c>
+      <c r="C461" s="1" t="s">
         <v>935</v>
-      </c>
-      <c r="B461" s="1">
-        <v>3</v>
-      </c>
-      <c r="C461" s="1" t="s">
-        <v>936</v>
       </c>
       <c r="D461" s="1" t="s">
         <v>7</v>
@@ -11844,13 +11841,13 @@
     </row>
     <row r="462" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A462" s="5" t="s">
+        <v>936</v>
+      </c>
+      <c r="B462" s="1">
+        <v>3</v>
+      </c>
+      <c r="C462" s="1" t="s">
         <v>937</v>
-      </c>
-      <c r="B462" s="1">
-        <v>3</v>
-      </c>
-      <c r="C462" s="1" t="s">
-        <v>938</v>
       </c>
       <c r="D462" s="1" t="s">
         <v>7</v>
@@ -11861,13 +11858,13 @@
     </row>
     <row r="463" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A463" s="5" t="s">
+        <v>938</v>
+      </c>
+      <c r="B463" s="1">
+        <v>3</v>
+      </c>
+      <c r="C463" s="1" t="s">
         <v>939</v>
-      </c>
-      <c r="B463" s="1">
-        <v>3</v>
-      </c>
-      <c r="C463" s="1" t="s">
-        <v>940</v>
       </c>
       <c r="D463" s="1" t="s">
         <v>11</v>
@@ -11878,13 +11875,13 @@
     </row>
     <row r="464" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A464" s="5" t="s">
+        <v>940</v>
+      </c>
+      <c r="B464" s="1">
+        <v>3</v>
+      </c>
+      <c r="C464" s="1" t="s">
         <v>941</v>
-      </c>
-      <c r="B464" s="1">
-        <v>3</v>
-      </c>
-      <c r="C464" s="1" t="s">
-        <v>942</v>
       </c>
       <c r="D464" s="1" t="s">
         <v>11</v>
@@ -11895,13 +11892,13 @@
     </row>
     <row r="465" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A465" s="5" t="s">
+        <v>942</v>
+      </c>
+      <c r="B465" s="1">
+        <v>3</v>
+      </c>
+      <c r="C465" s="1" t="s">
         <v>943</v>
-      </c>
-      <c r="B465" s="1">
-        <v>3</v>
-      </c>
-      <c r="C465" s="1" t="s">
-        <v>944</v>
       </c>
       <c r="D465" s="1" t="s">
         <v>7</v>
@@ -11912,13 +11909,13 @@
     </row>
     <row r="466" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A466" s="4" t="s">
+        <v>944</v>
+      </c>
+      <c r="B466" s="1">
+        <v>3</v>
+      </c>
+      <c r="C466" s="1" t="s">
         <v>945</v>
-      </c>
-      <c r="B466" s="1">
-        <v>3</v>
-      </c>
-      <c r="C466" s="1" t="s">
-        <v>946</v>
       </c>
       <c r="D466" s="1" t="s">
         <v>11</v>
@@ -11929,13 +11926,13 @@
     </row>
     <row r="467" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A467" s="4" t="s">
+        <v>946</v>
+      </c>
+      <c r="B467" s="1">
+        <v>3</v>
+      </c>
+      <c r="C467" s="1" t="s">
         <v>947</v>
-      </c>
-      <c r="B467" s="1">
-        <v>3</v>
-      </c>
-      <c r="C467" s="1" t="s">
-        <v>948</v>
       </c>
       <c r="D467" s="1" t="s">
         <v>11</v>
@@ -11946,13 +11943,13 @@
     </row>
     <row r="468" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A468" s="4" t="s">
+        <v>948</v>
+      </c>
+      <c r="B468" s="1">
+        <v>3</v>
+      </c>
+      <c r="C468" s="1" t="s">
         <v>949</v>
-      </c>
-      <c r="B468" s="1">
-        <v>3</v>
-      </c>
-      <c r="C468" s="1" t="s">
-        <v>950</v>
       </c>
       <c r="D468" s="1" t="s">
         <v>7</v>
@@ -11963,13 +11960,13 @@
     </row>
     <row r="469" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A469" s="4" t="s">
+        <v>950</v>
+      </c>
+      <c r="B469" s="1">
+        <v>3</v>
+      </c>
+      <c r="C469" s="1" t="s">
         <v>951</v>
-      </c>
-      <c r="B469" s="1">
-        <v>3</v>
-      </c>
-      <c r="C469" s="1" t="s">
-        <v>952</v>
       </c>
       <c r="D469" s="1" t="s">
         <v>11</v>
@@ -11980,13 +11977,13 @@
     </row>
     <row r="470" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A470" s="4" t="s">
+        <v>952</v>
+      </c>
+      <c r="B470" s="1">
+        <v>3</v>
+      </c>
+      <c r="C470" s="1" t="s">
         <v>953</v>
-      </c>
-      <c r="B470" s="1">
-        <v>3</v>
-      </c>
-      <c r="C470" s="1" t="s">
-        <v>954</v>
       </c>
       <c r="D470" s="1" t="s">
         <v>7</v>
@@ -11997,13 +11994,13 @@
     </row>
     <row r="471" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A471" s="4" t="s">
+        <v>954</v>
+      </c>
+      <c r="B471" s="1">
+        <v>3</v>
+      </c>
+      <c r="C471" s="1" t="s">
         <v>955</v>
-      </c>
-      <c r="B471" s="1">
-        <v>3</v>
-      </c>
-      <c r="C471" s="1" t="s">
-        <v>956</v>
       </c>
       <c r="D471" s="1" t="s">
         <v>7</v>
@@ -12014,13 +12011,13 @@
     </row>
     <row r="472" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A472" s="4" t="s">
+        <v>956</v>
+      </c>
+      <c r="B472" s="1">
+        <v>3</v>
+      </c>
+      <c r="C472" s="1" t="s">
         <v>957</v>
-      </c>
-      <c r="B472" s="1">
-        <v>3</v>
-      </c>
-      <c r="C472" s="1" t="s">
-        <v>958</v>
       </c>
       <c r="D472" s="1" t="s">
         <v>7</v>
@@ -12031,13 +12028,13 @@
     </row>
     <row r="473" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A473" s="4" t="s">
+        <v>958</v>
+      </c>
+      <c r="B473" s="1">
+        <v>3</v>
+      </c>
+      <c r="C473" s="1" t="s">
         <v>959</v>
-      </c>
-      <c r="B473" s="1">
-        <v>3</v>
-      </c>
-      <c r="C473" s="1" t="s">
-        <v>960</v>
       </c>
       <c r="D473" s="1" t="s">
         <v>7</v>
@@ -12048,13 +12045,13 @@
     </row>
     <row r="474" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A474" s="4" t="s">
+        <v>960</v>
+      </c>
+      <c r="B474" s="1">
+        <v>3</v>
+      </c>
+      <c r="C474" s="1" t="s">
         <v>961</v>
-      </c>
-      <c r="B474" s="1">
-        <v>3</v>
-      </c>
-      <c r="C474" s="1" t="s">
-        <v>962</v>
       </c>
       <c r="D474" s="1" t="s">
         <v>7</v>
@@ -12065,13 +12062,13 @@
     </row>
     <row r="475" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A475" s="4" t="s">
+        <v>962</v>
+      </c>
+      <c r="B475" s="1">
+        <v>3</v>
+      </c>
+      <c r="C475" s="1" t="s">
         <v>963</v>
-      </c>
-      <c r="B475" s="1">
-        <v>3</v>
-      </c>
-      <c r="C475" s="1" t="s">
-        <v>964</v>
       </c>
       <c r="D475" s="1" t="s">
         <v>7</v>
@@ -12082,13 +12079,13 @@
     </row>
     <row r="476" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A476" s="4" t="s">
+        <v>964</v>
+      </c>
+      <c r="B476" s="1">
+        <v>3</v>
+      </c>
+      <c r="C476" s="1" t="s">
         <v>965</v>
-      </c>
-      <c r="B476" s="1">
-        <v>3</v>
-      </c>
-      <c r="C476" s="1" t="s">
-        <v>966</v>
       </c>
       <c r="D476" s="1" t="s">
         <v>7</v>
@@ -12099,13 +12096,13 @@
     </row>
     <row r="477" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A477" s="4" t="s">
+        <v>966</v>
+      </c>
+      <c r="B477" s="1">
+        <v>3</v>
+      </c>
+      <c r="C477" s="1" t="s">
         <v>967</v>
-      </c>
-      <c r="B477" s="1">
-        <v>3</v>
-      </c>
-      <c r="C477" s="1" t="s">
-        <v>968</v>
       </c>
       <c r="D477" s="1" t="s">
         <v>11</v>
@@ -12116,13 +12113,13 @@
     </row>
     <row r="478" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A478" s="4" t="s">
+        <v>968</v>
+      </c>
+      <c r="B478" s="1">
+        <v>3</v>
+      </c>
+      <c r="C478" s="1" t="s">
         <v>969</v>
-      </c>
-      <c r="B478" s="1">
-        <v>3</v>
-      </c>
-      <c r="C478" s="1" t="s">
-        <v>970</v>
       </c>
       <c r="D478" s="1" t="s">
         <v>7</v>
@@ -12133,13 +12130,13 @@
     </row>
     <row r="479" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A479" s="4" t="s">
+        <v>970</v>
+      </c>
+      <c r="B479" s="1">
+        <v>3</v>
+      </c>
+      <c r="C479" s="1" t="s">
         <v>971</v>
-      </c>
-      <c r="B479" s="1">
-        <v>3</v>
-      </c>
-      <c r="C479" s="1" t="s">
-        <v>972</v>
       </c>
       <c r="D479" s="1" t="s">
         <v>7</v>
@@ -12150,13 +12147,13 @@
     </row>
     <row r="480" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A480" s="4" t="s">
+        <v>972</v>
+      </c>
+      <c r="B480" s="1">
+        <v>3</v>
+      </c>
+      <c r="C480" s="1" t="s">
         <v>973</v>
-      </c>
-      <c r="B480" s="1">
-        <v>3</v>
-      </c>
-      <c r="C480" s="1" t="s">
-        <v>974</v>
       </c>
       <c r="D480" s="1" t="s">
         <v>11</v>
@@ -12167,13 +12164,13 @@
     </row>
     <row r="481" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A481" s="4" t="s">
+        <v>974</v>
+      </c>
+      <c r="B481" s="1">
+        <v>3</v>
+      </c>
+      <c r="C481" s="1" t="s">
         <v>975</v>
-      </c>
-      <c r="B481" s="1">
-        <v>3</v>
-      </c>
-      <c r="C481" s="1" t="s">
-        <v>976</v>
       </c>
       <c r="D481" s="1" t="s">
         <v>7</v>
@@ -12184,13 +12181,13 @@
     </row>
     <row r="482" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A482" s="4" t="s">
+        <v>976</v>
+      </c>
+      <c r="B482" s="1">
+        <v>3</v>
+      </c>
+      <c r="C482" s="1" t="s">
         <v>977</v>
-      </c>
-      <c r="B482" s="1">
-        <v>3</v>
-      </c>
-      <c r="C482" s="1" t="s">
-        <v>978</v>
       </c>
       <c r="D482" s="1" t="s">
         <v>7</v>
@@ -12201,13 +12198,13 @@
     </row>
     <row r="483" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A483" s="4" t="s">
+        <v>978</v>
+      </c>
+      <c r="B483" s="1">
+        <v>3</v>
+      </c>
+      <c r="C483" s="1" t="s">
         <v>979</v>
-      </c>
-      <c r="B483" s="1">
-        <v>3</v>
-      </c>
-      <c r="C483" s="1" t="s">
-        <v>980</v>
       </c>
       <c r="D483" s="1" t="s">
         <v>11</v>
@@ -12218,13 +12215,13 @@
     </row>
     <row r="484" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A484" s="4" t="s">
+        <v>980</v>
+      </c>
+      <c r="B484" s="1">
+        <v>3</v>
+      </c>
+      <c r="C484" s="1" t="s">
         <v>981</v>
-      </c>
-      <c r="B484" s="1">
-        <v>3</v>
-      </c>
-      <c r="C484" s="1" t="s">
-        <v>982</v>
       </c>
       <c r="D484" s="1" t="s">
         <v>7</v>
@@ -12235,13 +12232,13 @@
     </row>
     <row r="485" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A485" s="4" t="s">
+        <v>982</v>
+      </c>
+      <c r="B485" s="1">
+        <v>3</v>
+      </c>
+      <c r="C485" s="1" t="s">
         <v>983</v>
-      </c>
-      <c r="B485" s="1">
-        <v>3</v>
-      </c>
-      <c r="C485" s="1" t="s">
-        <v>984</v>
       </c>
       <c r="D485" s="1" t="s">
         <v>11</v>
@@ -12252,13 +12249,13 @@
     </row>
     <row r="486" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A486" s="4" t="s">
+        <v>984</v>
+      </c>
+      <c r="B486" s="1">
+        <v>3</v>
+      </c>
+      <c r="C486" s="1" t="s">
         <v>985</v>
-      </c>
-      <c r="B486" s="1">
-        <v>3</v>
-      </c>
-      <c r="C486" s="1" t="s">
-        <v>986</v>
       </c>
       <c r="D486" s="1" t="s">
         <v>11</v>
@@ -12269,13 +12266,13 @@
     </row>
     <row r="487" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A487" s="4" t="s">
+        <v>986</v>
+      </c>
+      <c r="B487" s="1">
+        <v>3</v>
+      </c>
+      <c r="C487" s="1" t="s">
         <v>987</v>
-      </c>
-      <c r="B487" s="1">
-        <v>3</v>
-      </c>
-      <c r="C487" s="1" t="s">
-        <v>988</v>
       </c>
       <c r="D487" s="1" t="s">
         <v>7</v>
@@ -12286,13 +12283,13 @@
     </row>
     <row r="488" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A488" s="4" t="s">
+        <v>988</v>
+      </c>
+      <c r="B488" s="1">
+        <v>3</v>
+      </c>
+      <c r="C488" s="1" t="s">
         <v>989</v>
-      </c>
-      <c r="B488" s="1">
-        <v>3</v>
-      </c>
-      <c r="C488" s="1" t="s">
-        <v>990</v>
       </c>
       <c r="D488" s="1" t="s">
         <v>7</v>
@@ -12303,13 +12300,13 @@
     </row>
     <row r="489" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A489" s="4" t="s">
+        <v>990</v>
+      </c>
+      <c r="B489" s="1">
+        <v>3</v>
+      </c>
+      <c r="C489" s="1" t="s">
         <v>991</v>
-      </c>
-      <c r="B489" s="1">
-        <v>3</v>
-      </c>
-      <c r="C489" s="1" t="s">
-        <v>992</v>
       </c>
       <c r="D489" s="1" t="s">
         <v>7</v>
@@ -12320,13 +12317,13 @@
     </row>
     <row r="490" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A490" s="4" t="s">
+        <v>992</v>
+      </c>
+      <c r="B490" s="1">
+        <v>3</v>
+      </c>
+      <c r="C490" s="1" t="s">
         <v>993</v>
-      </c>
-      <c r="B490" s="1">
-        <v>3</v>
-      </c>
-      <c r="C490" s="1" t="s">
-        <v>994</v>
       </c>
       <c r="D490" s="1" t="s">
         <v>7</v>
@@ -12337,13 +12334,13 @@
     </row>
     <row r="491" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A491" s="4" t="s">
+        <v>994</v>
+      </c>
+      <c r="B491" s="1">
+        <v>3</v>
+      </c>
+      <c r="C491" s="1" t="s">
         <v>995</v>
-      </c>
-      <c r="B491" s="1">
-        <v>3</v>
-      </c>
-      <c r="C491" s="1" t="s">
-        <v>996</v>
       </c>
       <c r="D491" s="1" t="s">
         <v>11</v>
@@ -12354,13 +12351,13 @@
     </row>
     <row r="492" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A492" s="4" t="s">
+        <v>996</v>
+      </c>
+      <c r="B492" s="1">
+        <v>3</v>
+      </c>
+      <c r="C492" s="1" t="s">
         <v>997</v>
-      </c>
-      <c r="B492" s="1">
-        <v>3</v>
-      </c>
-      <c r="C492" s="1" t="s">
-        <v>998</v>
       </c>
       <c r="D492" s="1" t="s">
         <v>7</v>
@@ -12371,13 +12368,13 @@
     </row>
     <row r="493" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A493" s="4" t="s">
+        <v>998</v>
+      </c>
+      <c r="B493" s="1">
+        <v>3</v>
+      </c>
+      <c r="C493" s="1" t="s">
         <v>999</v>
-      </c>
-      <c r="B493" s="1">
-        <v>3</v>
-      </c>
-      <c r="C493" s="1" t="s">
-        <v>1000</v>
       </c>
       <c r="D493" s="1" t="s">
         <v>11</v>
@@ -12388,13 +12385,13 @@
     </row>
     <row r="494" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A494" s="4" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B494" s="1">
+        <v>3</v>
+      </c>
+      <c r="C494" s="1" t="s">
         <v>1001</v>
-      </c>
-      <c r="B494" s="1">
-        <v>3</v>
-      </c>
-      <c r="C494" s="1" t="s">
-        <v>1002</v>
       </c>
       <c r="D494" s="1" t="s">
         <v>7</v>
@@ -12405,13 +12402,13 @@
     </row>
     <row r="495" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A495" s="4" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B495" s="1">
+        <v>3</v>
+      </c>
+      <c r="C495" s="1" t="s">
         <v>1003</v>
-      </c>
-      <c r="B495" s="1">
-        <v>3</v>
-      </c>
-      <c r="C495" s="1" t="s">
-        <v>1004</v>
       </c>
       <c r="D495" s="1" t="s">
         <v>7</v>
@@ -12422,13 +12419,13 @@
     </row>
     <row r="496" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A496" s="4" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B496" s="1">
+        <v>3</v>
+      </c>
+      <c r="C496" s="1" t="s">
         <v>1005</v>
-      </c>
-      <c r="B496" s="1">
-        <v>3</v>
-      </c>
-      <c r="C496" s="1" t="s">
-        <v>1006</v>
       </c>
       <c r="D496" s="1" t="s">
         <v>7</v>
@@ -12439,13 +12436,13 @@
     </row>
     <row r="497" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A497" s="4" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B497" s="1">
+        <v>3</v>
+      </c>
+      <c r="C497" s="1" t="s">
         <v>1007</v>
-      </c>
-      <c r="B497" s="1">
-        <v>3</v>
-      </c>
-      <c r="C497" s="1" t="s">
-        <v>1008</v>
       </c>
       <c r="D497" s="1" t="s">
         <v>7</v>
@@ -12456,13 +12453,13 @@
     </row>
     <row r="498" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A498" s="4" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B498" s="1">
+        <v>3</v>
+      </c>
+      <c r="C498" s="1" t="s">
         <v>1009</v>
-      </c>
-      <c r="B498" s="1">
-        <v>3</v>
-      </c>
-      <c r="C498" s="1" t="s">
-        <v>1010</v>
       </c>
       <c r="D498" s="1" t="s">
         <v>11</v>
@@ -12473,13 +12470,13 @@
     </row>
     <row r="499" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A499" s="4" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B499" s="1">
+        <v>3</v>
+      </c>
+      <c r="C499" s="1" t="s">
         <v>1011</v>
-      </c>
-      <c r="B499" s="1">
-        <v>3</v>
-      </c>
-      <c r="C499" s="1" t="s">
-        <v>1012</v>
       </c>
       <c r="D499" s="1" t="s">
         <v>7</v>
@@ -12490,13 +12487,13 @@
     </row>
     <row r="500" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A500" s="4" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B500" s="1">
+        <v>3</v>
+      </c>
+      <c r="C500" s="1" t="s">
         <v>1013</v>
-      </c>
-      <c r="B500" s="1">
-        <v>3</v>
-      </c>
-      <c r="C500" s="1" t="s">
-        <v>1014</v>
       </c>
       <c r="D500" s="1" t="s">
         <v>7</v>
@@ -12507,13 +12504,13 @@
     </row>
     <row r="501" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A501" s="4" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B501" s="1">
+        <v>3</v>
+      </c>
+      <c r="C501" s="1" t="s">
         <v>1015</v>
-      </c>
-      <c r="B501" s="1">
-        <v>3</v>
-      </c>
-      <c r="C501" s="1" t="s">
-        <v>1016</v>
       </c>
       <c r="D501" s="1" t="s">
         <v>7</v>
@@ -12524,13 +12521,13 @@
     </row>
     <row r="502" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A502" s="4" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B502" s="1">
+        <v>3</v>
+      </c>
+      <c r="C502" s="1" t="s">
         <v>1017</v>
-      </c>
-      <c r="B502" s="1">
-        <v>3</v>
-      </c>
-      <c r="C502" s="1" t="s">
-        <v>1018</v>
       </c>
       <c r="D502" s="1" t="s">
         <v>11</v>
@@ -12541,13 +12538,13 @@
     </row>
     <row r="503" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A503" s="4" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B503" s="1">
+        <v>3</v>
+      </c>
+      <c r="C503" s="1" t="s">
         <v>1019</v>
-      </c>
-      <c r="B503" s="1">
-        <v>3</v>
-      </c>
-      <c r="C503" s="1" t="s">
-        <v>1020</v>
       </c>
       <c r="D503" s="1" t="s">
         <v>7</v>
@@ -12558,13 +12555,13 @@
     </row>
     <row r="504" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A504" s="4" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B504" s="1">
+        <v>3</v>
+      </c>
+      <c r="C504" s="1" t="s">
         <v>1021</v>
-      </c>
-      <c r="B504" s="1">
-        <v>3</v>
-      </c>
-      <c r="C504" s="1" t="s">
-        <v>1022</v>
       </c>
       <c r="D504" s="1" t="s">
         <v>11</v>
@@ -12575,13 +12572,13 @@
     </row>
     <row r="505" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A505" s="4" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B505" s="1">
+        <v>3</v>
+      </c>
+      <c r="C505" s="1" t="s">
         <v>1023</v>
-      </c>
-      <c r="B505" s="1">
-        <v>3</v>
-      </c>
-      <c r="C505" s="1" t="s">
-        <v>1024</v>
       </c>
       <c r="D505" s="1" t="s">
         <v>11</v>
@@ -12592,13 +12589,13 @@
     </row>
     <row r="506" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A506" s="4" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B506" s="1">
+        <v>3</v>
+      </c>
+      <c r="C506" s="1" t="s">
         <v>1025</v>
-      </c>
-      <c r="B506" s="1">
-        <v>3</v>
-      </c>
-      <c r="C506" s="1" t="s">
-        <v>1026</v>
       </c>
       <c r="D506" s="1" t="s">
         <v>7</v>
@@ -12609,13 +12606,13 @@
     </row>
     <row r="507" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A507" s="4" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B507" s="1">
+        <v>3</v>
+      </c>
+      <c r="C507" s="1" t="s">
         <v>1027</v>
-      </c>
-      <c r="B507" s="1">
-        <v>3</v>
-      </c>
-      <c r="C507" s="1" t="s">
-        <v>1028</v>
       </c>
       <c r="D507" s="1" t="s">
         <v>7</v>
@@ -12626,13 +12623,13 @@
     </row>
     <row r="508" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A508" s="4" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B508" s="1">
+        <v>3</v>
+      </c>
+      <c r="C508" s="1" t="s">
         <v>1029</v>
-      </c>
-      <c r="B508" s="1">
-        <v>3</v>
-      </c>
-      <c r="C508" s="1" t="s">
-        <v>1030</v>
       </c>
       <c r="D508" s="1" t="s">
         <v>11</v>
@@ -12643,13 +12640,13 @@
     </row>
     <row r="509" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A509" s="4" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B509" s="1">
+        <v>3</v>
+      </c>
+      <c r="C509" s="1" t="s">
         <v>1031</v>
-      </c>
-      <c r="B509" s="1">
-        <v>3</v>
-      </c>
-      <c r="C509" s="1" t="s">
-        <v>1032</v>
       </c>
       <c r="D509" s="1" t="s">
         <v>11</v>
@@ -12660,13 +12657,13 @@
     </row>
     <row r="510" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A510" s="4" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B510" s="1">
+        <v>3</v>
+      </c>
+      <c r="C510" s="1" t="s">
         <v>1033</v>
-      </c>
-      <c r="B510" s="1">
-        <v>3</v>
-      </c>
-      <c r="C510" s="1" t="s">
-        <v>1034</v>
       </c>
       <c r="D510" s="1" t="s">
         <v>11</v>
@@ -12677,13 +12674,13 @@
     </row>
     <row r="511" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A511" s="4" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B511" s="1">
+        <v>3</v>
+      </c>
+      <c r="C511" s="1" t="s">
         <v>1035</v>
-      </c>
-      <c r="B511" s="1">
-        <v>3</v>
-      </c>
-      <c r="C511" s="1" t="s">
-        <v>1036</v>
       </c>
       <c r="D511" s="1" t="s">
         <v>11</v>
@@ -12694,13 +12691,13 @@
     </row>
     <row r="512" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A512" s="4" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B512" s="1">
+        <v>3</v>
+      </c>
+      <c r="C512" s="1" t="s">
         <v>1037</v>
-      </c>
-      <c r="B512" s="1">
-        <v>3</v>
-      </c>
-      <c r="C512" s="1" t="s">
-        <v>1038</v>
       </c>
       <c r="D512" s="1" t="s">
         <v>7</v>
@@ -12711,13 +12708,13 @@
     </row>
     <row r="513" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A513" s="4" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B513" s="1">
+        <v>3</v>
+      </c>
+      <c r="C513" s="1" t="s">
         <v>1039</v>
-      </c>
-      <c r="B513" s="1">
-        <v>3</v>
-      </c>
-      <c r="C513" s="1" t="s">
-        <v>1040</v>
       </c>
       <c r="D513" s="1" t="s">
         <v>7</v>
@@ -12728,13 +12725,13 @@
     </row>
     <row r="514" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A514" s="4" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B514" s="1">
+        <v>3</v>
+      </c>
+      <c r="C514" s="1" t="s">
         <v>1041</v>
-      </c>
-      <c r="B514" s="1">
-        <v>3</v>
-      </c>
-      <c r="C514" s="1" t="s">
-        <v>1042</v>
       </c>
       <c r="D514" s="1" t="s">
         <v>7</v>
@@ -12745,13 +12742,13 @@
     </row>
     <row r="515" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A515" s="4" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B515" s="1">
+        <v>3</v>
+      </c>
+      <c r="C515" s="1" t="s">
         <v>1043</v>
-      </c>
-      <c r="B515" s="1">
-        <v>3</v>
-      </c>
-      <c r="C515" s="1" t="s">
-        <v>1044</v>
       </c>
       <c r="D515" s="1" t="s">
         <v>7</v>
@@ -12762,13 +12759,13 @@
     </row>
     <row r="516" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A516" s="4" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B516" s="1">
+        <v>3</v>
+      </c>
+      <c r="C516" s="1" t="s">
         <v>1045</v>
-      </c>
-      <c r="B516" s="1">
-        <v>3</v>
-      </c>
-      <c r="C516" s="1" t="s">
-        <v>1046</v>
       </c>
       <c r="D516" s="1" t="s">
         <v>7</v>
@@ -12779,13 +12776,13 @@
     </row>
     <row r="517" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A517" s="4" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B517" s="1">
+        <v>3</v>
+      </c>
+      <c r="C517" s="1" t="s">
         <v>1047</v>
-      </c>
-      <c r="B517" s="1">
-        <v>3</v>
-      </c>
-      <c r="C517" s="1" t="s">
-        <v>1048</v>
       </c>
       <c r="D517" s="1" t="s">
         <v>11</v>
@@ -12796,13 +12793,13 @@
     </row>
     <row r="518" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A518" s="4" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B518" s="1">
+        <v>3</v>
+      </c>
+      <c r="C518" s="1" t="s">
         <v>1049</v>
-      </c>
-      <c r="B518" s="1">
-        <v>3</v>
-      </c>
-      <c r="C518" s="1" t="s">
-        <v>1050</v>
       </c>
       <c r="D518" s="1" t="s">
         <v>11</v>
@@ -12813,13 +12810,13 @@
     </row>
     <row r="519" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A519" s="4" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B519" s="1">
+        <v>3</v>
+      </c>
+      <c r="C519" s="1" t="s">
         <v>1051</v>
-      </c>
-      <c r="B519" s="1">
-        <v>3</v>
-      </c>
-      <c r="C519" s="1" t="s">
-        <v>1052</v>
       </c>
       <c r="D519" s="1" t="s">
         <v>11</v>
@@ -12830,13 +12827,13 @@
     </row>
     <row r="520" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A520" s="4" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B520" s="1">
+        <v>3</v>
+      </c>
+      <c r="C520" s="1" t="s">
         <v>1053</v>
-      </c>
-      <c r="B520" s="1">
-        <v>3</v>
-      </c>
-      <c r="C520" s="1" t="s">
-        <v>1054</v>
       </c>
       <c r="D520" s="1" t="s">
         <v>11</v>
@@ -12847,13 +12844,13 @@
     </row>
     <row r="521" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A521" s="4" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B521" s="1">
+        <v>3</v>
+      </c>
+      <c r="C521" s="1" t="s">
         <v>1055</v>
-      </c>
-      <c r="B521" s="1">
-        <v>3</v>
-      </c>
-      <c r="C521" s="1" t="s">
-        <v>1056</v>
       </c>
       <c r="D521" s="1" t="s">
         <v>7</v>
@@ -12864,13 +12861,13 @@
     </row>
     <row r="522" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A522" s="4" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B522" s="1">
+        <v>3</v>
+      </c>
+      <c r="C522" s="1" t="s">
         <v>1057</v>
-      </c>
-      <c r="B522" s="1">
-        <v>3</v>
-      </c>
-      <c r="C522" s="1" t="s">
-        <v>1058</v>
       </c>
       <c r="D522" s="1" t="s">
         <v>11</v>
@@ -12881,13 +12878,13 @@
     </row>
     <row r="523" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A523" s="4" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B523" s="1">
+        <v>3</v>
+      </c>
+      <c r="C523" s="1" t="s">
         <v>1059</v>
-      </c>
-      <c r="B523" s="1">
-        <v>3</v>
-      </c>
-      <c r="C523" s="1" t="s">
-        <v>1060</v>
       </c>
       <c r="D523" s="1" t="s">
         <v>7</v>
@@ -12898,13 +12895,13 @@
     </row>
     <row r="524" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A524" s="4" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B524" s="1">
+        <v>3</v>
+      </c>
+      <c r="C524" s="1" t="s">
         <v>1061</v>
-      </c>
-      <c r="B524" s="1">
-        <v>3</v>
-      </c>
-      <c r="C524" s="1" t="s">
-        <v>1062</v>
       </c>
       <c r="D524" s="1" t="s">
         <v>11</v>
@@ -12915,13 +12912,13 @@
     </row>
     <row r="525" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A525" s="4" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B525" s="1">
+        <v>3</v>
+      </c>
+      <c r="C525" s="1" t="s">
         <v>1063</v>
-      </c>
-      <c r="B525" s="1">
-        <v>3</v>
-      </c>
-      <c r="C525" s="1" t="s">
-        <v>1064</v>
       </c>
       <c r="D525" s="1" t="s">
         <v>7</v>
@@ -12932,13 +12929,13 @@
     </row>
     <row r="526" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A526" s="4" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B526" s="1">
+        <v>3</v>
+      </c>
+      <c r="C526" s="1" t="s">
         <v>1065</v>
-      </c>
-      <c r="B526" s="1">
-        <v>3</v>
-      </c>
-      <c r="C526" s="1" t="s">
-        <v>1066</v>
       </c>
       <c r="D526" s="1" t="s">
         <v>7</v>
@@ -12949,13 +12946,13 @@
     </row>
     <row r="527" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A527" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B527" s="1">
+        <v>3</v>
+      </c>
+      <c r="C527" s="1" t="s">
         <v>1067</v>
-      </c>
-      <c r="B527" s="1">
-        <v>3</v>
-      </c>
-      <c r="C527" s="1" t="s">
-        <v>1068</v>
       </c>
       <c r="D527" s="1" t="s">
         <v>7</v>
@@ -12966,13 +12963,13 @@
     </row>
     <row r="528" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A528" s="4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B528" s="1">
+        <v>3</v>
+      </c>
+      <c r="C528" s="1" t="s">
         <v>1069</v>
-      </c>
-      <c r="B528" s="1">
-        <v>3</v>
-      </c>
-      <c r="C528" s="1" t="s">
-        <v>1070</v>
       </c>
       <c r="D528" s="1" t="s">
         <v>7</v>
@@ -12983,13 +12980,13 @@
     </row>
     <row r="529" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A529" s="4" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B529" s="1">
+        <v>3</v>
+      </c>
+      <c r="C529" s="1" t="s">
         <v>1071</v>
-      </c>
-      <c r="B529" s="1">
-        <v>3</v>
-      </c>
-      <c r="C529" s="1" t="s">
-        <v>1072</v>
       </c>
       <c r="D529" s="1" t="s">
         <v>7</v>
@@ -13000,13 +12997,13 @@
     </row>
     <row r="530" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A530" s="4" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B530" s="1">
+        <v>3</v>
+      </c>
+      <c r="C530" s="1" t="s">
         <v>1073</v>
-      </c>
-      <c r="B530" s="1">
-        <v>3</v>
-      </c>
-      <c r="C530" s="1" t="s">
-        <v>1074</v>
       </c>
       <c r="D530" s="1" t="s">
         <v>7</v>
@@ -13017,13 +13014,13 @@
     </row>
     <row r="531" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A531" s="4" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B531" s="1">
+        <v>3</v>
+      </c>
+      <c r="C531" s="1" t="s">
         <v>1075</v>
-      </c>
-      <c r="B531" s="1">
-        <v>3</v>
-      </c>
-      <c r="C531" s="1" t="s">
-        <v>1076</v>
       </c>
       <c r="D531" s="1" t="s">
         <v>7</v>
@@ -13034,13 +13031,13 @@
     </row>
     <row r="532" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A532" s="4" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B532" s="1">
+        <v>3</v>
+      </c>
+      <c r="C532" s="1" t="s">
         <v>1077</v>
-      </c>
-      <c r="B532" s="1">
-        <v>3</v>
-      </c>
-      <c r="C532" s="1" t="s">
-        <v>1078</v>
       </c>
       <c r="D532" s="1" t="s">
         <v>7</v>
@@ -13051,13 +13048,13 @@
     </row>
     <row r="533" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A533" s="4" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B533" s="1">
+        <v>3</v>
+      </c>
+      <c r="C533" s="1" t="s">
         <v>1079</v>
-      </c>
-      <c r="B533" s="1">
-        <v>3</v>
-      </c>
-      <c r="C533" s="1" t="s">
-        <v>1080</v>
       </c>
       <c r="D533" s="1" t="s">
         <v>7</v>
@@ -13068,13 +13065,13 @@
     </row>
     <row r="534" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A534" s="4" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B534" s="1">
+        <v>3</v>
+      </c>
+      <c r="C534" s="1" t="s">
         <v>1081</v>
-      </c>
-      <c r="B534" s="1">
-        <v>3</v>
-      </c>
-      <c r="C534" s="1" t="s">
-        <v>1082</v>
       </c>
       <c r="D534" s="1" t="s">
         <v>7</v>
@@ -13085,13 +13082,13 @@
     </row>
     <row r="535" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A535" s="4" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B535" s="1">
+        <v>3</v>
+      </c>
+      <c r="C535" s="1" t="s">
         <v>1083</v>
-      </c>
-      <c r="B535" s="1">
-        <v>3</v>
-      </c>
-      <c r="C535" s="1" t="s">
-        <v>1084</v>
       </c>
       <c r="D535" s="1" t="s">
         <v>11</v>
@@ -13102,13 +13099,13 @@
     </row>
     <row r="536" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A536" s="4" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B536" s="1">
+        <v>3</v>
+      </c>
+      <c r="C536" s="1" t="s">
         <v>1085</v>
-      </c>
-      <c r="B536" s="1">
-        <v>3</v>
-      </c>
-      <c r="C536" s="1" t="s">
-        <v>1086</v>
       </c>
       <c r="D536" s="1" t="s">
         <v>7</v>
@@ -13119,13 +13116,13 @@
     </row>
     <row r="537" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A537" s="4" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B537" s="1">
+        <v>3</v>
+      </c>
+      <c r="C537" s="1" t="s">
         <v>1087</v>
-      </c>
-      <c r="B537" s="1">
-        <v>3</v>
-      </c>
-      <c r="C537" s="1" t="s">
-        <v>1088</v>
       </c>
       <c r="D537" s="1" t="s">
         <v>7</v>
@@ -13136,13 +13133,13 @@
     </row>
     <row r="538" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A538" s="4" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B538" s="1">
+        <v>3</v>
+      </c>
+      <c r="C538" s="1" t="s">
         <v>1089</v>
-      </c>
-      <c r="B538" s="1">
-        <v>3</v>
-      </c>
-      <c r="C538" s="1" t="s">
-        <v>1090</v>
       </c>
       <c r="D538" s="1" t="s">
         <v>7</v>
@@ -13153,13 +13150,13 @@
     </row>
     <row r="539" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A539" s="4" t="s">
+        <v>1090</v>
+      </c>
+      <c r="B539" s="1">
+        <v>3</v>
+      </c>
+      <c r="C539" s="1" t="s">
         <v>1091</v>
-      </c>
-      <c r="B539" s="1">
-        <v>3</v>
-      </c>
-      <c r="C539" s="1" t="s">
-        <v>1092</v>
       </c>
       <c r="D539" s="1" t="s">
         <v>11</v>
@@ -13170,13 +13167,13 @@
     </row>
     <row r="540" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A540" s="4" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B540" s="1">
+        <v>3</v>
+      </c>
+      <c r="C540" s="1" t="s">
         <v>1093</v>
-      </c>
-      <c r="B540" s="1">
-        <v>3</v>
-      </c>
-      <c r="C540" s="1" t="s">
-        <v>1094</v>
       </c>
       <c r="D540" s="1" t="s">
         <v>7</v>
@@ -13187,13 +13184,13 @@
     </row>
     <row r="541" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A541" s="4" t="s">
+        <v>1094</v>
+      </c>
+      <c r="B541" s="1">
+        <v>3</v>
+      </c>
+      <c r="C541" s="1" t="s">
         <v>1095</v>
-      </c>
-      <c r="B541" s="1">
-        <v>3</v>
-      </c>
-      <c r="C541" s="1" t="s">
-        <v>1096</v>
       </c>
       <c r="D541" s="1" t="s">
         <v>7</v>
@@ -13204,13 +13201,13 @@
     </row>
     <row r="542" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A542" s="4" t="s">
+        <v>1096</v>
+      </c>
+      <c r="B542" s="1">
+        <v>3</v>
+      </c>
+      <c r="C542" s="1" t="s">
         <v>1097</v>
-      </c>
-      <c r="B542" s="1">
-        <v>3</v>
-      </c>
-      <c r="C542" s="1" t="s">
-        <v>1098</v>
       </c>
       <c r="D542" s="1" t="s">
         <v>7</v>
@@ -13221,13 +13218,13 @@
     </row>
     <row r="543" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A543" s="4" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B543" s="1">
+        <v>3</v>
+      </c>
+      <c r="C543" s="1" t="s">
         <v>1099</v>
-      </c>
-      <c r="B543" s="1">
-        <v>3</v>
-      </c>
-      <c r="C543" s="1" t="s">
-        <v>1100</v>
       </c>
       <c r="D543" s="1" t="s">
         <v>11</v>
@@ -13238,13 +13235,13 @@
     </row>
     <row r="544" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A544" s="4" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B544" s="1">
+        <v>3</v>
+      </c>
+      <c r="C544" s="1" t="s">
         <v>1101</v>
-      </c>
-      <c r="B544" s="1">
-        <v>3</v>
-      </c>
-      <c r="C544" s="1" t="s">
-        <v>1102</v>
       </c>
       <c r="D544" s="1" t="s">
         <v>7</v>
@@ -13255,13 +13252,13 @@
     </row>
     <row r="545" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A545" s="4" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B545" s="1">
+        <v>3</v>
+      </c>
+      <c r="C545" s="1" t="s">
         <v>1103</v>
-      </c>
-      <c r="B545" s="1">
-        <v>3</v>
-      </c>
-      <c r="C545" s="1" t="s">
-        <v>1104</v>
       </c>
       <c r="D545" s="1" t="s">
         <v>7</v>
@@ -13272,13 +13269,13 @@
     </row>
     <row r="546" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A546" s="4" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B546" s="1">
+        <v>3</v>
+      </c>
+      <c r="C546" s="1" t="s">
         <v>1105</v>
-      </c>
-      <c r="B546" s="1">
-        <v>3</v>
-      </c>
-      <c r="C546" s="1" t="s">
-        <v>1106</v>
       </c>
       <c r="D546" s="1" t="s">
         <v>11</v>
@@ -13289,13 +13286,13 @@
     </row>
     <row r="547" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A547" s="4" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B547" s="1">
+        <v>3</v>
+      </c>
+      <c r="C547" s="1" t="s">
         <v>1107</v>
-      </c>
-      <c r="B547" s="1">
-        <v>3</v>
-      </c>
-      <c r="C547" s="1" t="s">
-        <v>1108</v>
       </c>
       <c r="D547" s="1" t="s">
         <v>11</v>
@@ -13306,13 +13303,13 @@
     </row>
     <row r="548" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A548" s="4" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B548" s="1">
+        <v>3</v>
+      </c>
+      <c r="C548" s="1" t="s">
         <v>1109</v>
-      </c>
-      <c r="B548" s="1">
-        <v>3</v>
-      </c>
-      <c r="C548" s="1" t="s">
-        <v>1110</v>
       </c>
       <c r="D548" s="1" t="s">
         <v>11</v>
@@ -13323,13 +13320,13 @@
     </row>
     <row r="549" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A549" s="4" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B549" s="1">
+        <v>3</v>
+      </c>
+      <c r="C549" s="1" t="s">
         <v>1111</v>
-      </c>
-      <c r="B549" s="1">
-        <v>3</v>
-      </c>
-      <c r="C549" s="1" t="s">
-        <v>1112</v>
       </c>
       <c r="D549" s="1" t="s">
         <v>11</v>
@@ -13340,13 +13337,13 @@
     </row>
     <row r="550" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A550" s="4" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B550" s="1">
+        <v>3</v>
+      </c>
+      <c r="C550" s="1" t="s">
         <v>1113</v>
-      </c>
-      <c r="B550" s="1">
-        <v>3</v>
-      </c>
-      <c r="C550" s="1" t="s">
-        <v>1114</v>
       </c>
       <c r="D550" s="1" t="s">
         <v>11</v>
@@ -13357,13 +13354,13 @@
     </row>
     <row r="551" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A551" s="4" t="s">
+        <v>1114</v>
+      </c>
+      <c r="B551" s="1">
+        <v>3</v>
+      </c>
+      <c r="C551" s="1" t="s">
         <v>1115</v>
-      </c>
-      <c r="B551" s="1">
-        <v>3</v>
-      </c>
-      <c r="C551" s="1" t="s">
-        <v>1116</v>
       </c>
       <c r="D551" s="1" t="s">
         <v>11</v>
@@ -13374,13 +13371,13 @@
     </row>
     <row r="552" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A552" s="4" t="s">
+        <v>1116</v>
+      </c>
+      <c r="B552" s="1">
+        <v>3</v>
+      </c>
+      <c r="C552" s="1" t="s">
         <v>1117</v>
-      </c>
-      <c r="B552" s="1">
-        <v>3</v>
-      </c>
-      <c r="C552" s="1" t="s">
-        <v>1118</v>
       </c>
       <c r="D552" s="1" t="s">
         <v>7</v>
@@ -13391,13 +13388,13 @@
     </row>
     <row r="553" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A553" s="4" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B553" s="1">
+        <v>3</v>
+      </c>
+      <c r="C553" s="1" t="s">
         <v>1119</v>
-      </c>
-      <c r="B553" s="1">
-        <v>3</v>
-      </c>
-      <c r="C553" s="1" t="s">
-        <v>1120</v>
       </c>
       <c r="D553" s="1" t="s">
         <v>11</v>
@@ -13408,13 +13405,13 @@
     </row>
     <row r="554" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A554" s="4" t="s">
+        <v>1120</v>
+      </c>
+      <c r="B554" s="1">
+        <v>3</v>
+      </c>
+      <c r="C554" s="1" t="s">
         <v>1121</v>
-      </c>
-      <c r="B554" s="1">
-        <v>3</v>
-      </c>
-      <c r="C554" s="1" t="s">
-        <v>1122</v>
       </c>
       <c r="D554" s="1" t="s">
         <v>7</v>
@@ -13425,13 +13422,13 @@
     </row>
     <row r="555" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A555" s="4" t="s">
+        <v>1122</v>
+      </c>
+      <c r="B555" s="1">
+        <v>3</v>
+      </c>
+      <c r="C555" s="1" t="s">
         <v>1123</v>
-      </c>
-      <c r="B555" s="1">
-        <v>3</v>
-      </c>
-      <c r="C555" s="1" t="s">
-        <v>1124</v>
       </c>
       <c r="D555" s="1" t="s">
         <v>11</v>
@@ -13442,13 +13439,13 @@
     </row>
     <row r="556" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A556" s="4" t="s">
+        <v>1124</v>
+      </c>
+      <c r="B556" s="1">
+        <v>3</v>
+      </c>
+      <c r="C556" s="1" t="s">
         <v>1125</v>
-      </c>
-      <c r="B556" s="1">
-        <v>3</v>
-      </c>
-      <c r="C556" s="1" t="s">
-        <v>1126</v>
       </c>
       <c r="D556" s="1" t="s">
         <v>7</v>
@@ -13459,13 +13456,13 @@
     </row>
     <row r="557" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A557" s="4" t="s">
+        <v>1126</v>
+      </c>
+      <c r="B557" s="1">
+        <v>3</v>
+      </c>
+      <c r="C557" s="1" t="s">
         <v>1127</v>
-      </c>
-      <c r="B557" s="1">
-        <v>3</v>
-      </c>
-      <c r="C557" s="1" t="s">
-        <v>1128</v>
       </c>
       <c r="D557" s="1" t="s">
         <v>11</v>
@@ -13476,13 +13473,13 @@
     </row>
     <row r="558" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A558" s="6" t="s">
+        <v>1128</v>
+      </c>
+      <c r="B558" s="1">
+        <v>3</v>
+      </c>
+      <c r="C558" s="1" t="s">
         <v>1129</v>
-      </c>
-      <c r="B558" s="1">
-        <v>3</v>
-      </c>
-      <c r="C558" s="1" t="s">
-        <v>1130</v>
       </c>
       <c r="D558" s="1" t="s">
         <v>11</v>
@@ -13493,13 +13490,13 @@
     </row>
     <row r="559" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A559" s="6" t="s">
+        <v>1130</v>
+      </c>
+      <c r="B559" s="1">
+        <v>3</v>
+      </c>
+      <c r="C559" s="1" t="s">
         <v>1131</v>
-      </c>
-      <c r="B559" s="1">
-        <v>3</v>
-      </c>
-      <c r="C559" s="1" t="s">
-        <v>1132</v>
       </c>
       <c r="D559" s="1" t="s">
         <v>11</v>
@@ -13510,13 +13507,13 @@
     </row>
     <row r="560" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A560" s="6" t="s">
+        <v>1132</v>
+      </c>
+      <c r="B560" s="1">
+        <v>3</v>
+      </c>
+      <c r="C560" s="1" t="s">
         <v>1133</v>
-      </c>
-      <c r="B560" s="1">
-        <v>3</v>
-      </c>
-      <c r="C560" s="1" t="s">
-        <v>1134</v>
       </c>
       <c r="D560" s="1" t="s">
         <v>7</v>
@@ -13527,13 +13524,13 @@
     </row>
     <row r="561" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A561" s="6" t="s">
+        <v>1134</v>
+      </c>
+      <c r="B561" s="1">
+        <v>3</v>
+      </c>
+      <c r="C561" s="1" t="s">
         <v>1135</v>
-      </c>
-      <c r="B561" s="1">
-        <v>3</v>
-      </c>
-      <c r="C561" s="1" t="s">
-        <v>1136</v>
       </c>
       <c r="D561" s="1" t="s">
         <v>7</v>
@@ -13544,13 +13541,13 @@
     </row>
     <row r="562" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A562" s="6" t="s">
+        <v>1136</v>
+      </c>
+      <c r="B562" s="1">
+        <v>3</v>
+      </c>
+      <c r="C562" s="1" t="s">
         <v>1137</v>
-      </c>
-      <c r="B562" s="1">
-        <v>3</v>
-      </c>
-      <c r="C562" s="1" t="s">
-        <v>1138</v>
       </c>
       <c r="D562" s="1" t="s">
         <v>11</v>
@@ -13561,13 +13558,13 @@
     </row>
     <row r="563" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A563" s="6" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B563" s="1">
+        <v>3</v>
+      </c>
+      <c r="C563" s="1" t="s">
         <v>1139</v>
-      </c>
-      <c r="B563" s="1">
-        <v>3</v>
-      </c>
-      <c r="C563" s="1" t="s">
-        <v>1140</v>
       </c>
       <c r="D563" s="1" t="s">
         <v>11</v>
@@ -13578,13 +13575,13 @@
     </row>
     <row r="564" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A564" s="6" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B564" s="1">
+        <v>3</v>
+      </c>
+      <c r="C564" s="1" t="s">
         <v>1141</v>
-      </c>
-      <c r="B564" s="1">
-        <v>3</v>
-      </c>
-      <c r="C564" s="1" t="s">
-        <v>1142</v>
       </c>
       <c r="D564" s="1" t="s">
         <v>11</v>
@@ -13595,13 +13592,13 @@
     </row>
     <row r="565" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A565" s="6" t="s">
+        <v>1142</v>
+      </c>
+      <c r="B565" s="1">
+        <v>3</v>
+      </c>
+      <c r="C565" s="1" t="s">
         <v>1143</v>
-      </c>
-      <c r="B565" s="1">
-        <v>3</v>
-      </c>
-      <c r="C565" s="1" t="s">
-        <v>1144</v>
       </c>
       <c r="D565" s="1" t="s">
         <v>7</v>
@@ -13612,13 +13609,13 @@
     </row>
     <row r="566" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A566" s="6" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B566" s="1">
+        <v>3</v>
+      </c>
+      <c r="C566" s="1" t="s">
         <v>1145</v>
-      </c>
-      <c r="B566" s="1">
-        <v>3</v>
-      </c>
-      <c r="C566" s="1" t="s">
-        <v>1146</v>
       </c>
       <c r="D566" s="1" t="s">
         <v>7</v>
@@ -13629,13 +13626,13 @@
     </row>
     <row r="567" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A567" s="6" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B567" s="1">
+        <v>3</v>
+      </c>
+      <c r="C567" s="1" t="s">
         <v>1147</v>
-      </c>
-      <c r="B567" s="1">
-        <v>3</v>
-      </c>
-      <c r="C567" s="1" t="s">
-        <v>1148</v>
       </c>
       <c r="D567" s="1" t="s">
         <v>11</v>
@@ -13646,13 +13643,13 @@
     </row>
     <row r="568" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A568" s="6" t="s">
+        <v>1148</v>
+      </c>
+      <c r="B568" s="1">
+        <v>3</v>
+      </c>
+      <c r="C568" s="1" t="s">
         <v>1149</v>
-      </c>
-      <c r="B568" s="1">
-        <v>3</v>
-      </c>
-      <c r="C568" s="1" t="s">
-        <v>1150</v>
       </c>
       <c r="D568" s="1" t="s">
         <v>7</v>
@@ -13663,13 +13660,13 @@
     </row>
     <row r="569" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A569" s="6" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B569" s="1">
+        <v>3</v>
+      </c>
+      <c r="C569" s="1" t="s">
         <v>1151</v>
-      </c>
-      <c r="B569" s="1">
-        <v>3</v>
-      </c>
-      <c r="C569" s="1" t="s">
-        <v>1152</v>
       </c>
       <c r="D569" s="1" t="s">
         <v>11</v>
